--- a/Masters/Equipment/EquipmentUpgradeRecipeMaster/ClassSchema.xlsx
+++ b/Masters/Equipment/EquipmentUpgradeRecipeMaster/ClassSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Equipment\EquipmentUpgradeRecipeMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18763EA3-8B79-4A5B-B5A3-9EAEEB38F54B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD5689-083D-480B-BA5A-348CCD2D0D8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>short</t>
+    <t>ushort</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -481,7 +481,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
